--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Documents\GitHub\ERPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="157">
   <si>
     <t>MODULO</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>CCEDENO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que el egreso de caja se ligue a la conciliación de caja abierta </t>
   </si>
   <si>
     <t>Revisar: En la pantalla de ingreso / egreso de caja el diario sea automático</t>
@@ -899,10 +896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -930,27 +927,27 @@
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>7</v>
@@ -958,72 +955,72 @@
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -1042,44 +1039,44 @@
     </row>
     <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1098,97 +1095,97 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>7</v>
@@ -1196,265 +1193,265 @@
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>7</v>
@@ -1462,27 +1459,27 @@
     </row>
     <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>7</v>
@@ -1499,7 +1496,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,18 +1552,18 @@
         <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
@@ -1583,18 +1580,18 @@
         <v>18</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1602,13 +1599,13 @@
     </row>
     <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -1616,13 +1613,13 @@
     </row>
     <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -1630,13 +1627,13 @@
     </row>
     <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -1653,7 +1650,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,18 +1720,18 @@
         <v>31</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>7</v>
@@ -1751,7 +1748,7 @@
         <v>32</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,7 +1762,7 @@
         <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,18 +1776,18 @@
         <v>36</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>7</v>
@@ -1807,16 +1804,16 @@
         <v>38</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>7</v>
@@ -1824,11 +1821,11 @@
     </row>
     <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>7</v>
@@ -1836,11 +1833,11 @@
     </row>
     <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>7</v>
@@ -1854,10 +1851,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,63 +1865,63 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="14" t="s">
+      <c r="D72" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>7</v>
@@ -1932,55 +1929,55 @@
     </row>
     <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>7</v>
@@ -1988,55 +1985,55 @@
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>7</v>
@@ -2050,21 +2047,21 @@
         <v>8</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>7</v>
@@ -2078,21 +2075,21 @@
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>7</v>
@@ -2100,19 +2097,19 @@
     </row>
     <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>12</v>
       </c>
@@ -2120,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>4</v>
       </c>
@@ -2134,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>4</v>
       </c>
@@ -2148,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>4</v>
       </c>
@@ -2162,27 +2159,27 @@
         <v>8</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>25</v>
       </c>
@@ -2190,27 +2187,27 @@
         <v>8</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>25</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>7</v>
@@ -2235,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,43 +2305,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="14" t="s">
+    <row r="101" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>85</v>
+      <c r="C102" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>7</v>
@@ -2352,7 +2349,7 @@
     </row>
     <row r="104" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>5</v>
@@ -2366,13 +2363,13 @@
     </row>
     <row r="105" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>7</v>
@@ -2380,27 +2377,27 @@
     </row>
     <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>81</v>
+      <c r="A107" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>110</v>
+      <c r="C107" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>7</v>
@@ -2408,13 +2405,13 @@
     </row>
     <row r="108" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>7</v>
@@ -2448,15 +2445,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>137</v>
+      <c r="C111" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>7</v>
@@ -2478,30 +2475,30 @@
     </row>
     <row r="113" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2512,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>7</v>
@@ -2526,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>7</v>
@@ -2546,18 +2543,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+    <row r="118" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,71 +2565,71 @@
         <v>29</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>7</v>
+      <c r="C123" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>29</v>
@@ -2641,94 +2638,94 @@
         <v>97</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>7</v>
+      <c r="C127" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B129" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>59</v>
+      <c r="C129" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>156</v>
+      <c r="C130" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
         <v>37</v>
       </c>
@@ -2742,39 +2739,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="16" t="s">
+    <row r="132" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C132" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>141</v>
+      <c r="C132" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D133">
+  <autoFilter ref="A1:D132">
     <filterColumn colId="1">
       <filters>
-        <filter val="CCEDENO"/>
-        <filter val="IOBANDO"/>
         <filter val="JAROCA"/>
-        <filter val="WENDY"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -899,7 +899,7 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>5</v>
@@ -2473,7 +2473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>87</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>145</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Documents\GitHub\ERPWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -899,16 +899,16 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="16"/>
+    <col min="2" max="2" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -939,7 +939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -953,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -967,7 +967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -981,7 +981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -995,7 +995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>37</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>37</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>61</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2064,10 +2064,10 @@
         <v>112</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>61</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>141</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2148,7 @@
         <v>156</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
         <v>142</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>146</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>153</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,7 +2218,7 @@
         <v>154</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>134</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>25</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>152</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Documents\GitHub\ERPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="158">
   <si>
     <t>MODULO</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Modificar el reporte quitando el lote y vencimiento y agregar el costo de egreso e ingreso</t>
+  </si>
+  <si>
+    <t>Agregar IdSucursal en diarios</t>
   </si>
 </sst>
 </file>
@@ -896,19 +899,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="2" max="2" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -939,7 +942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -953,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -967,7 +970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -981,7 +984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -995,7 +998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>37</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>37</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>61</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>61</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>149</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,6 +2751,20 @@
       </c>
       <c r="C132" s="3" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -902,7 +902,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2392,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>130</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,7 +2753,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
         <v>58</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D132">
+  <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
         <filter val="JAROCA"/>

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>107</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Documents\GitHub\ERPWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -902,16 +902,16 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="16"/>
+    <col min="2" max="2" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -942,7 +942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -953,10 +953,10 @@
         <v>44</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -970,7 +970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -984,7 +984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -998,7 +998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1191,10 +1191,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1222,12 +1222,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>93</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
@@ -1289,10 +1289,10 @@
         <v>116</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
@@ -1373,10 +1373,10 @@
         <v>122</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
@@ -1432,12 +1432,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>127</v>
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>37</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>37</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>42</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>87</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>61</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>132</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>92</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>92</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>92</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>80</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>12</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2771,7 +2771,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="JAROCA"/>
+        <filter val="CCEDENO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>90</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>137</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
         <v>150</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="CCEDENO"/>
+        <filter val="IOBANDO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="159">
   <si>
     <t>MODULO</t>
   </si>
@@ -338,12 +338,6 @@
     <t>Wizard de activos fijos</t>
   </si>
   <si>
-    <t>Wizard de parametrización</t>
-  </si>
-  <si>
-    <t>Wizard de cuentas bancarias y saldo inicial</t>
-  </si>
-  <si>
     <t>Impresiones masivas de cheque</t>
   </si>
   <si>
@@ -359,12 +353,6 @@
     <t>Migacion de diarios contables de modulo de facturacion academico</t>
   </si>
   <si>
-    <t>Migracion de facturas por evento</t>
-  </si>
-  <si>
-    <t>Migracion de datos para ATS y filtro por sucursal</t>
-  </si>
-  <si>
     <t>Que solo se pueda modificar los campos: cuenta contable, naturaleza, clave y el check de si es cuenta de movimiento. En la pantalla plan de cuentas</t>
   </si>
   <si>
@@ -386,15 +374,9 @@
     <t>Crear una opción en marcaciones donde se muestren los atrasos y salidas antes del horario donde el proceso debe crear un descuento por las horas o minutos involucradas.</t>
   </si>
   <si>
-    <t>Aprobacion de préstamos, se puedan realizar abonos parciales y/o abono completo, si el prestamos se aprobo se genera una orden de pago aprobado caso contrario los prestamos que no hayan sido aprobados no deben afectar a la liquidación de la nómina.</t>
-  </si>
-  <si>
     <t>Quitar decimales en el Excel de importación de horas de profesores, siempre son horas enteras.</t>
   </si>
   <si>
-    <t>Especificar en la ficha de empleado si gozará más de quince días de vacaciones y como máximo 30 asi tenga un año de antigüedad.</t>
-  </si>
-  <si>
     <t>Cuando existan empleados que se paguen en cheque en cualquier proceso de liquidación de nómina se debe generar ordenes de pago con estado APROBADO.</t>
   </si>
   <si>
@@ -501,6 +483,27 @@
   </si>
   <si>
     <t>Agregar IdSucursal en diarios</t>
+  </si>
+  <si>
+    <t>Aprobacion de préstamos</t>
+  </si>
+  <si>
+    <t>Se puedan realizar abonos parciales y/o abono completo, si el prestamos se aprobo se genera una orden de pago aprobado caso contrario los prestamos que no hayan sido aprobados no deben afectar a la liquidación de la nómina.</t>
+  </si>
+  <si>
+    <t>Agregar campo de GozaMasDeQuinceDias y campo DiasMaximosAGozar en ficha de empleado</t>
+  </si>
+  <si>
+    <t>Cambiar proceso de calculo de dias para vacaciones</t>
+  </si>
+  <si>
+    <t>FACIL</t>
+  </si>
+  <si>
+    <t>Wizard de General</t>
+  </si>
+  <si>
+    <t>Wizard de cuentas bancarias y documentos girados y no cobrados</t>
   </si>
 </sst>
 </file>
@@ -901,17 +904,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="16"/>
+    <col min="3" max="3" width="85.21875" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1028,7 +1030,7 @@
     </row>
     <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>61</v>
@@ -1084,7 +1086,7 @@
     </row>
     <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>61</v>
@@ -1223,48 +1225,48 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>80</v>
+      <c r="A24" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
+      <c r="C24" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>80</v>
+    <row r="25" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>111</v>
+      <c r="C25" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>42</v>
       </c>
@@ -1272,10 +1274,10 @@
         <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1286,23 +1288,23 @@
         <v>39</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1314,10 +1316,10 @@
         <v>39</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,13 +1330,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>42</v>
       </c>
@@ -1342,13 +1344,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
@@ -1356,10 +1358,10 @@
         <v>39</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,7 +1372,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>84</v>
@@ -1381,10 +1383,10 @@
         <v>42</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>7</v>
@@ -1395,10 +1397,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>7</v>
@@ -1409,10 +1411,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>7</v>
@@ -1426,13 +1428,13 @@
         <v>39</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>7</v>
@@ -1454,7 +1456,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>7</v>
@@ -1462,7 +1464,7 @@
     </row>
     <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>61</v>
@@ -1482,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>7</v>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>61</v>
@@ -1784,7 +1786,7 @@
     </row>
     <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -1814,7 +1816,9 @@
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1830,9 @@
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>82</v>
       </c>
@@ -1838,7 +1844,9 @@
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>83</v>
       </c>
@@ -1902,31 +1910,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="14" t="s">
+    <row r="72" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1972,15 +1980,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>7</v>
@@ -2014,7 +2022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -2022,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>7</v>
@@ -2050,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>84</v>
@@ -2064,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>84</v>
@@ -2078,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>84</v>
@@ -2092,7 +2100,7 @@
         <v>61</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>7</v>
@@ -2100,13 +2108,13 @@
     </row>
     <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>84</v>
@@ -2120,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>84</v>
@@ -2134,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>84</v>
@@ -2148,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>84</v>
@@ -2162,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>84</v>
@@ -2176,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>84</v>
@@ -2190,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>84</v>
@@ -2204,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>84</v>
@@ -2218,7 +2226,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>84</v>
@@ -2238,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2323,14 +2331,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>92</v>
+      <c r="A102" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>7</v>
@@ -2341,10 +2349,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>7</v>
@@ -2355,10 +2363,10 @@
         <v>92</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>7</v>
@@ -2372,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>84</v>
@@ -2382,11 +2390,11 @@
       <c r="A106" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B106" s="16" t="s">
-        <v>5</v>
+      <c r="B106" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>7</v>
@@ -2400,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>84</v>
@@ -2414,13 +2422,13 @@
         <v>5</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2428,13 +2436,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2442,13 +2450,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>12</v>
       </c>
@@ -2456,13 +2464,13 @@
         <v>5</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>7</v>
@@ -2484,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>84</v>
@@ -2498,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>84</v>
@@ -2512,13 +2520,13 @@
         <v>5</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>7</v>
@@ -2540,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>84</v>
@@ -2603,14 +2611,14 @@
       </c>
     </row>
     <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>144</v>
+      <c r="A122" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>7</v>
@@ -2645,14 +2653,14 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" s="16" t="s">
+      <c r="A125" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>99</v>
+      <c r="C125" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>7</v>
@@ -2660,13 +2668,13 @@
     </row>
     <row r="126" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>7</v>
@@ -2694,7 +2702,7 @@
         <v>29</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>84</v>
@@ -2708,7 +2716,7 @@
         <v>29</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>7</v>
@@ -2722,7 +2730,7 @@
         <v>29</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>7</v>
@@ -2736,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>7</v>
@@ -2750,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>84</v>
@@ -2771,7 +2779,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="IOBANDO"/>
+        <filter val="JAROCA"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -2780,8 +2788,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:D134">
-    <sortCondition ref="B2:B134"/>
+  <sortState ref="A23:D131">
+    <sortCondition ref="B2:B133"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -904,8 +904,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1403,7 @@
         <v>154</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>119</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>92</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>12</v>
       </c>
@@ -2467,10 +2467,10 @@
         <v>132</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>142</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>149</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>109</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>110</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="JAROCA"/>
+        <filter val="IOBANDO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -905,7 +905,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -905,7 +905,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>92</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +2779,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="IOBANDO"/>
+        <filter val="JAROCA"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -905,7 +905,7 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="C103" sqref="C103:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1991,7 +1991,7 @@
         <v>157</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2341,10 +2341,10 @@
         <v>152</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>92</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>101</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>92</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>137</v>
       </c>
@@ -2779,7 +2779,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="JAROCA"/>
+        <filter val="WENDY"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">

--- a/Personalizaciones ERP - CCG.xlsx
+++ b/Personalizaciones ERP - CCG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Documents\GitHub\ERPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,15 +905,15 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103:C122"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="16"/>
-    <col min="3" max="3" width="85.21875" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.77734375" style="16"/>
+    <col min="2" max="2" width="10.7109375" style="16"/>
+    <col min="3" max="3" width="85.28515625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -944,7 +944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -958,7 +958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -972,7 +972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -986,7 +986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>42</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>42</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>25</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>37</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>80</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>37</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>42</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>58</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>61</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>87</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" s="15" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" s="8" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>126</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>92</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>25</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="3" customFormat="1" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>92</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>137</v>
       </c>
@@ -2779,7 +2779,7 @@
   <autoFilter ref="A1:D133">
     <filterColumn colId="1">
       <filters>
-        <filter val="WENDY"/>
+        <filter val="JAROCA"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
